--- a/13/1/3/Operaciones financieras 1990 a 2021 - Trimestral.xlsx
+++ b/13/1/3/Operaciones financieras 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Serie</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3540,16 +3543,16 @@
         <v>61</v>
       </c>
       <c r="B41">
-        <v>116829</v>
+        <v>118348</v>
       </c>
       <c r="C41">
-        <v>-568417</v>
+        <v>-568436</v>
       </c>
       <c r="D41">
         <v>301</v>
       </c>
       <c r="E41">
-        <v>568718</v>
+        <v>568737</v>
       </c>
       <c r="F41">
         <v>-28</v>
@@ -3564,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>685274</v>
+        <v>686812</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3582,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>-161660</v>
+        <v>-161702</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3594,19 +3597,19 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>-161660</v>
+        <v>-161702</v>
       </c>
       <c r="U41">
         <v>1527</v>
       </c>
       <c r="V41">
-        <v>163187</v>
+        <v>163230</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>278489</v>
+        <v>280050</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3614,16 +3617,16 @@
         <v>62</v>
       </c>
       <c r="B42">
-        <v>-68420</v>
+        <v>-68225</v>
       </c>
       <c r="C42">
-        <v>23490</v>
+        <v>23494</v>
       </c>
       <c r="D42">
         <v>900</v>
       </c>
       <c r="E42">
-        <v>-22590</v>
+        <v>-22594</v>
       </c>
       <c r="F42">
         <v>-6</v>
@@ -3638,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>-91904</v>
+        <v>-91714</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3656,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>-1356</v>
+        <v>-1323</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3668,19 +3671,19 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>-1356</v>
+        <v>-1323</v>
       </c>
       <c r="U42">
         <v>3110</v>
       </c>
       <c r="V42">
-        <v>4466</v>
+        <v>4433</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42">
-        <v>-67064</v>
+        <v>-66902</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3688,16 +3691,16 @@
         <v>63</v>
       </c>
       <c r="B43">
-        <v>156873</v>
+        <v>156324</v>
       </c>
       <c r="C43">
-        <v>5997</v>
+        <v>5990</v>
       </c>
       <c r="D43">
         <v>50</v>
       </c>
       <c r="E43">
-        <v>-5947</v>
+        <v>-5940</v>
       </c>
       <c r="F43">
         <v>18</v>
@@ -3712,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>150857</v>
+        <v>150316</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3754,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>155390</v>
+        <v>154842</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3762,16 +3765,16 @@
         <v>64</v>
       </c>
       <c r="B44">
-        <v>-2981</v>
+        <v>375</v>
       </c>
       <c r="C44">
-        <v>9323</v>
+        <v>6605</v>
       </c>
       <c r="D44">
         <v>1894</v>
       </c>
       <c r="E44">
-        <v>-7429</v>
+        <v>-4711</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3786,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>-12305</v>
+        <v>-6231</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3804,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>908</v>
+        <v>858</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3816,19 +3819,19 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>908</v>
+        <v>858</v>
       </c>
       <c r="U44">
         <v>4721</v>
       </c>
       <c r="V44">
-        <v>3813</v>
+        <v>3863</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44">
-        <v>-3889</v>
+        <v>-483</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3836,16 +3839,16 @@
         <v>65</v>
       </c>
       <c r="B45">
-        <v>217820</v>
+        <v>250531</v>
       </c>
       <c r="C45">
-        <v>-635367</v>
+        <v>-654697</v>
       </c>
       <c r="D45">
-        <v>664</v>
+        <v>504</v>
       </c>
       <c r="E45">
-        <v>636031</v>
+        <v>655200</v>
       </c>
       <c r="F45">
         <v>-10</v>
@@ -3860,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>853196</v>
+        <v>905237</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3878,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>-163769</v>
+        <v>-162498</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3890,19 +3893,93 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>-163769</v>
+        <v>-162498</v>
       </c>
       <c r="U45">
-        <v>505</v>
+        <v>1195</v>
       </c>
       <c r="V45">
-        <v>164274</v>
+        <v>163694</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>381589</v>
+        <v>413030</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46">
+        <v>-67568</v>
+      </c>
+      <c r="C46">
+        <v>11861</v>
+      </c>
+      <c r="D46">
+        <v>-72</v>
+      </c>
+      <c r="E46">
+        <v>-11933</v>
+      </c>
+      <c r="F46">
+        <v>87</v>
+      </c>
+      <c r="G46">
+        <v>88</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>-79516</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>368</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>368</v>
+      </c>
+      <c r="U46">
+        <v>2627</v>
+      </c>
+      <c r="V46">
+        <v>2259</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-67936</v>
       </c>
     </row>
   </sheetData>
